--- a/Execl/Building.xlsx
+++ b/Execl/Building.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\创客征程\public_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ckzc_client\public_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -55,181 +55,272 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>BuildingCost</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>OutputItem</t>
+  </si>
+  <si>
+    <t>_KeyInfo</t>
+  </si>
+  <si>
+    <t>_Money</t>
+  </si>
+  <si>
+    <t>_Item</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>key:Id</t>
+  </si>
+  <si>
+    <t>int,GoldType,货币类型</t>
+  </si>
+  <si>
+    <t>int,DroId,掉落库ID</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>店铺的icon</t>
+  </si>
+  <si>
+    <t>店铺大图标</t>
+  </si>
+  <si>
+    <t>店铺名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>建造消耗金砖</t>
+  </si>
+  <si>
+    <t>身价</t>
+  </si>
+  <si>
+    <t>可能掉落道具ID</t>
+  </si>
+  <si>
+    <t>int,Count,货币数量</t>
+  </si>
+  <si>
+    <t>int,Weight,掉落库概率</t>
+  </si>
+  <si>
+    <t>2,1000</t>
+  </si>
+  <si>
+    <t>50,51,40,158</t>
+  </si>
+  <si>
+    <t>149,157</t>
+  </si>
+  <si>
+    <t>150,155</t>
+  </si>
+  <si>
+    <t>146,156,101,111</t>
+  </si>
+  <si>
+    <t>147,154,101,111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>餐饮店</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数码店</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>服饰店</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐店</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝店</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedLv</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要角色等级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>icon_comp_005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,icon_comp_006,icon_comp_007,icon_comp_008,icon_comp_028</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>icon_comp_009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,icon_comp_010,icon_comp_011,icon_comp_012,icon_comp_029</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>icon_comp_013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,icon_comp_014,icon_comp_015,icon_comp_016,icon_comp_030</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_comp_017,icon_comp_018,icon_comp_019,icon_comp_020,icon_comp_031</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_comp_001,icon_comp_002,1,icon_comp_003,1,icon_comp_004,1,icon_comp_027</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>company_001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,company_002,company_003,company_004,company_005</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>company_011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,company_012,company_013,company_014,company_015</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>company_021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,company_022,company_023,company_024,company_025</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>company_031</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,company_032,company_033,company_034,company_035</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_041,company_042,company_043,company_044,company_045</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>Icon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BigIcon</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>BuildingCost</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>OutputItem</t>
-  </si>
-  <si>
-    <t>_KeyInfo</t>
-  </si>
-  <si>
-    <t>_Money</t>
-  </si>
-  <si>
-    <t>_Item</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Item[]</t>
-  </si>
-  <si>
-    <t>key:Id</t>
-  </si>
-  <si>
-    <t>int,GoldType,货币类型</t>
-  </si>
-  <si>
-    <t>int,DroId,掉落库ID</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>店铺的icon</t>
-  </si>
-  <si>
-    <t>店铺大图标</t>
-  </si>
-  <si>
-    <t>店铺名称</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>建造消耗金砖</t>
-  </si>
-  <si>
-    <t>身价</t>
-  </si>
-  <si>
-    <t>道具掉落</t>
-  </si>
-  <si>
-    <t>可能掉落道具ID</t>
-  </si>
-  <si>
-    <t>int,Count,货币数量</t>
-  </si>
-  <si>
-    <t>int,Weight,掉落库概率</t>
-  </si>
-  <si>
-    <t>icon_comp_001</t>
-  </si>
-  <si>
-    <t>company_001</t>
-  </si>
-  <si>
-    <t>2,1000</t>
-  </si>
-  <si>
-    <t>4201,30</t>
-  </si>
-  <si>
-    <t>50,51,40,158</t>
-  </si>
-  <si>
-    <t>icon_comp_005</t>
-  </si>
-  <si>
-    <t>company_011</t>
-  </si>
-  <si>
-    <t>4202,30</t>
-  </si>
-  <si>
-    <t>149,157</t>
-  </si>
-  <si>
-    <t>icon_comp_009</t>
-  </si>
-  <si>
-    <t>company_021</t>
-  </si>
-  <si>
-    <t>4203,30</t>
-  </si>
-  <si>
-    <t>150,155</t>
-  </si>
-  <si>
-    <t>icon_comp_013</t>
-  </si>
-  <si>
-    <t>company_031</t>
-  </si>
-  <si>
-    <t>4204,60;4205,20</t>
-  </si>
-  <si>
-    <t>146,156,101,111</t>
-  </si>
-  <si>
-    <t>icon_comp_017</t>
-  </si>
-  <si>
-    <t>company_041</t>
-  </si>
-  <si>
-    <t>4206,60;4205,20</t>
-  </si>
-  <si>
-    <t>147,154,101,111</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>餐饮店</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数码店</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>服饰店</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐店</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>珠宝店</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +409,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,11 +438,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -414,7 +514,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +549,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,7 +761,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -670,9 +770,9 @@
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="11" max="11" width="16.125" style="4" customWidth="1"/>
     <col min="12" max="12" width="23.25" customWidth="1"/>
@@ -682,141 +782,141 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="M2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>52</v>
+      <c r="B4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
         <v>1000</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K4" s="9"/>
     </row>
@@ -824,504 +924,408 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>53</v>
+      <c r="B5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
         <v>1000</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>54</v>
+      <c r="B6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6">
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
         <v>1000</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>55</v>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
         <v>1000</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>56</v>
+      <c r="B8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
         <v>1000</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="I8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H17" s="8"/>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H18" s="8"/>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H19" s="8"/>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H20" s="8"/>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H21" s="8"/>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H22" s="8"/>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H23" s="8"/>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H24" s="8"/>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H25" s="8"/>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H26" s="8"/>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H27" s="8"/>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H28" s="8"/>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H29" s="8"/>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H30" s="8"/>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H31" s="8"/>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H32" s="8"/>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H33" s="8"/>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H34" s="8"/>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H35" s="8"/>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H36" s="8"/>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H37" s="8"/>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H38" s="8"/>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H39" s="8"/>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H40" s="8"/>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H41" s="8"/>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H42" s="8"/>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H43" s="8"/>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H44" s="8"/>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H45" s="8"/>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H46" s="8"/>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H47" s="8"/>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H48" s="8"/>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H49" s="8"/>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H50" s="8"/>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H51" s="8"/>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H52" s="8"/>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H53" s="8"/>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H54" s="8"/>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H55" s="8"/>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H56" s="8"/>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H57" s="8"/>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H58" s="8"/>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H59" s="8"/>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H60" s="8"/>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H61" s="8"/>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H62" s="8"/>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H63" s="8"/>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H64" s="8"/>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H65" s="8"/>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H66" s="8"/>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H67" s="8"/>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H68" s="8"/>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H69" s="8"/>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I69" s="8"/>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H70" s="8"/>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I70" s="8"/>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H71" s="8"/>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H72" s="8"/>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H73" s="8"/>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H74" s="8"/>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H75" s="8"/>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I75" s="8"/>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H76" s="8"/>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H77" s="8"/>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H78" s="8"/>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I78" s="8"/>
     </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H79" s="8"/>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I79" s="8"/>
     </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H80" s="8"/>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H81" s="8"/>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I81" s="8"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H82" s="8"/>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H83" s="8"/>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H84" s="8"/>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I84" s="8"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H85" s="8"/>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I85" s="8"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H86" s="8"/>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I86" s="8"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H87" s="8"/>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I87" s="8"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H88" s="8"/>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I88" s="8"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H89" s="8"/>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I89" s="8"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H90" s="8"/>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I90" s="8"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H91" s="8"/>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I91" s="8"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H92" s="8"/>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I92" s="8"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H93" s="8"/>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I93" s="8"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H94" s="8"/>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I94" s="8"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H95" s="8"/>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I95" s="8"/>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H96" s="8"/>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I96" s="8"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H97" s="8"/>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I97" s="8"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H98" s="8"/>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I98" s="8"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H99" s="8"/>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I99" s="8"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H100" s="8"/>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I100" s="8"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H101" s="8"/>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I101" s="8"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H102" s="8"/>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I102" s="8"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H103" s="8"/>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I103" s="8"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H104" s="8"/>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I104" s="8"/>
     </row>
   </sheetData>
